--- a/code/count-distributions/manual_vs_automatic_measures.xlsx
+++ b/code/count-distributions/manual_vs_automatic_measures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\code\count-distributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BACKUP\RADBOUD\2º MASTER\TFM\CardiacOCT-project\code\count-distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F580809B-6F8B-4DED-9CD1-78B15321410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4561BB1-15A0-4110-850D-D0964E75BA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="31545" yWindow="2820" windowWidth="17280" windowHeight="8970" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plots lipid" sheetId="2" r:id="rId1"/>
@@ -28467,7 +28467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C17E350-6291-4780-BBCD-F13438EB9A4C}">
   <dimension ref="A1:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
